--- a/config_dummy.xlsx
+++ b/config_dummy.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nagasudhir\Documents\Python Projects\mis_et_training\mis_weekly_report_generator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nagasudhir\Documents\Python Projects\mis_software\mis_weekly_report_generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,12 +24,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>connStr</t>
   </si>
   <si>
     <t>appDbConStr</t>
+  </si>
+  <si>
+    <t>dumpFolder</t>
+  </si>
+  <si>
+    <t>dumps/</t>
   </si>
 </sst>
 </file>
@@ -399,9 +405,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -416,6 +424,14 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
